--- a/cases/NorthSea/Nodes/Nodes.xlsx
+++ b/cases/NorthSea/Nodes/Nodes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4387C1-B03C-488A-9091-B8C7555DC872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE37DE3-8E9D-4FA6-8692-AFED3AB6A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
     <sheet name="Nodes" sheetId="16" r:id="rId2"/>
+    <sheet name="Nodes_used" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>Node</t>
   </si>
@@ -148,6 +149,15 @@
   </si>
   <si>
     <t>NOS0</t>
+  </si>
+  <si>
+    <t>Solves alone with batteries</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yes, in combination with all other NL nodes</t>
   </si>
 </sst>
 </file>
@@ -648,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F81CCE-23B0-4FF9-9FCE-AEF94EE15CA8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,6 +674,9 @@
       <c r="B1" t="s">
         <v>24</v>
       </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -672,6 +685,9 @@
       <c r="B2" t="s">
         <v>30</v>
       </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -680,6 +696,9 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -688,6 +707,9 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -696,6 +718,9 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -704,6 +729,9 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -712,6 +740,9 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -720,6 +751,9 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -728,6 +762,9 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -736,6 +773,9 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -747,6 +787,9 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -758,6 +801,9 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -769,6 +815,9 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -777,6 +826,9 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -788,8 +840,303 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>

--- a/cases/NorthSea/Nodes/Nodes.xlsx
+++ b/cases/NorthSea/Nodes/Nodes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE37DE3-8E9D-4FA6-8692-AFED3AB6A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B96495-DAFE-426F-83B2-7FD9AEB06D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
     <sheet name="Nodes" sheetId="16" r:id="rId2"/>
-    <sheet name="Nodes_used" sheetId="17" r:id="rId3"/>
+    <sheet name="NodeTranslation" sheetId="18" r:id="rId3"/>
+    <sheet name="Nodes_used" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>Node</t>
   </si>
@@ -158,6 +181,87 @@
   </si>
   <si>
     <t>yes, in combination with all other NL nodes</t>
+  </si>
+  <si>
+    <t>onNL_E</t>
+  </si>
+  <si>
+    <t>onNL_NW</t>
+  </si>
+  <si>
+    <t>onNL_SW</t>
+  </si>
+  <si>
+    <t>onNL_CE</t>
+  </si>
+  <si>
+    <t>onNL_SE</t>
+  </si>
+  <si>
+    <t>onNL_NE</t>
+  </si>
+  <si>
+    <t>onNL_CW</t>
+  </si>
+  <si>
+    <t>onBE</t>
+  </si>
+  <si>
+    <t>onDE</t>
+  </si>
+  <si>
+    <t>onUK</t>
+  </si>
+  <si>
+    <t>onNOS</t>
+  </si>
+  <si>
+    <t>onDKW</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_B</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_A</t>
+  </si>
+  <si>
+    <t>ofNL_BO_A</t>
+  </si>
+  <si>
+    <t>ofNL_BO_B</t>
+  </si>
+  <si>
+    <t>ofNL_EG</t>
+  </si>
+  <si>
+    <t>ofNL_PA</t>
+  </si>
+  <si>
+    <t>ofNL_LU</t>
+  </si>
+  <si>
+    <t>ofNL_GE_B</t>
+  </si>
+  <si>
+    <t>ofNL_GE_A</t>
+  </si>
+  <si>
+    <t>ofNL_KZ_B</t>
+  </si>
+  <si>
+    <t>ofNL_KZ_A</t>
+  </si>
+  <si>
+    <t>ofNL_KN</t>
+  </si>
+  <si>
+    <t>ofNL_KW_A</t>
+  </si>
+  <si>
+    <t>ofNL_KW_B</t>
+  </si>
+  <si>
+    <t>ofNL_IJ_G</t>
   </si>
 </sst>
 </file>
@@ -659,7 +763,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -680,7 +784,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -691,7 +795,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -702,7 +806,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -713,7 +817,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -724,7 +828,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -735,7 +839,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -746,7 +850,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -757,7 +861,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -767,8 +871,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
+      <c r="A10" t="s">
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -781,8 +885,8 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
+      <c r="A11" t="s">
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -795,8 +899,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+      <c r="A12" t="s">
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -809,8 +913,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
+      <c r="A13" t="s">
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -820,8 +924,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -835,7 +939,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -846,7 +950,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -857,7 +961,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -868,7 +972,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -879,7 +983,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -890,7 +994,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -901,7 +1005,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -912,7 +1016,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -923,7 +1027,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -934,7 +1038,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -945,7 +1049,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -956,7 +1060,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -967,7 +1071,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -978,7 +1082,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -989,7 +1093,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1004,11 +1108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9441A046-2A34-49B3-A94C-61E003D0B0E2}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,16 +1124,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1037,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1045,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1061,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,7 +1202,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1205,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1245,7 +1346,259 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:B29">Nodes!A2:B29</f>
+        <v>onNL_NE</v>
+      </c>
+      <c r="B2" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <v>onNL_SE</v>
+      </c>
+      <c r="B3" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <v>onNL_NW</v>
+      </c>
+      <c r="B4" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <v>onNL_SW</v>
+      </c>
+      <c r="B5" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <v>onNL_CE</v>
+      </c>
+      <c r="B6" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <v>onNL_SW</v>
+      </c>
+      <c r="B7" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <v>onNL_CW</v>
+      </c>
+      <c r="B8" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <v>onNL_E</v>
+      </c>
+      <c r="B9" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
+        <v>onBE</v>
+      </c>
+      <c r="B10" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
+        <v>onDE</v>
+      </c>
+      <c r="B11" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <v>onUK</v>
+      </c>
+      <c r="B12" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <v>onNOS</v>
+      </c>
+      <c r="B13" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <v>onDKW</v>
+      </c>
+      <c r="B14" t="str">
+        <v>onshore</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <v>ofNL_IJ_B</v>
+      </c>
+      <c r="B15" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <v>ofNL_IJ_A</v>
+      </c>
+      <c r="B16" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <v>ofNL_BO_A</v>
+      </c>
+      <c r="B17" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <v>ofNL_BO_B</v>
+      </c>
+      <c r="B18" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <v>ofNL_EG</v>
+      </c>
+      <c r="B19" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <v>ofNL_PA</v>
+      </c>
+      <c r="B20" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <v>ofNL_LU</v>
+      </c>
+      <c r="B21" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <v>ofNL_GE_B</v>
+      </c>
+      <c r="B22" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <v>ofNL_GE_A</v>
+      </c>
+      <c r="B23" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <v>ofNL_KZ_B</v>
+      </c>
+      <c r="B24" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <v>ofNL_KZ_A</v>
+      </c>
+      <c r="B25" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <v>ofNL_KN</v>
+      </c>
+      <c r="B26" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <v>ofNL_KW_A</v>
+      </c>
+      <c r="B27" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <v>ofNL_KW_B</v>
+      </c>
+      <c r="B28" t="str">
+        <v>offshore</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <v>ofNL_IJ_G</v>
+      </c>
+      <c r="B29" t="str">
+        <v>offshore</v>
       </c>
     </row>
   </sheetData>

--- a/cases/NorthSea/Nodes/Nodes.xlsx
+++ b/cases/NorthSea/Nodes/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B96495-DAFE-426F-83B2-7FD9AEB06D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF16B75-DFB2-4033-B92B-8615378FF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Node</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>ofNL_IJ_G</t>
+  </si>
+  <si>
+    <t>onNL_W</t>
   </si>
 </sst>
 </file>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F81CCE-23B0-4FF9-9FCE-AEF94EE15CA8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,7 +820,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B5" t="str">
         <v>onshore</v>

--- a/cases/NorthSea/Nodes/Nodes.xlsx
+++ b/cases/NorthSea/Nodes/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF16B75-DFB2-4033-B92B-8615378FF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A15750-BFDA-4C63-9E3C-A16B3E10A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F81CCE-23B0-4FF9-9FCE-AEF94EE15CA8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9441A046-2A34-49B3-A94C-61E003D0B0E2}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/cases/NorthSea/Nodes/Nodes.xlsx
+++ b/cases/NorthSea/Nodes/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A15750-BFDA-4C63-9E3C-A16B3E10A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F27954-0E06-482F-AF1D-E614A4B2C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
@@ -41,30 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
   <si>
     <t>Node</t>
   </si>
@@ -734,24 +712,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -766,15 +744,15 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -796,7 +774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -807,7 +785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -818,7 +796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -829,7 +807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -840,7 +818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -851,7 +829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -862,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -873,7 +851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -887,7 +865,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -901,7 +879,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -915,7 +893,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -926,7 +904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -940,7 +918,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -951,7 +929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -962,7 +940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -973,7 +951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -984,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -995,7 +973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1006,7 +984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1017,7 +995,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1028,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1039,7 +1017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1050,7 +1028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1061,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1072,7 +1050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1083,7 +1061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1094,7 +1072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1114,21 +1092,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9441A046-2A34-49B3-A94C-61E003D0B0E2}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1152,7 +1130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1200,7 +1178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1186,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1216,7 +1194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1224,7 +1202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1362,16 +1340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,229 +1357,228 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:B29">Nodes!A2:B29</f>
-        <v>onNL_NE</v>
-      </c>
-      <c r="B2" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <v>onNL_SE</v>
-      </c>
-      <c r="B3" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <v>onNL_NW</v>
-      </c>
-      <c r="B4" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <v>onNL_W</v>
-      </c>
-      <c r="B5" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <v>onNL_CE</v>
-      </c>
-      <c r="B6" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <v>onNL_SW</v>
-      </c>
-      <c r="B7" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <v>onNL_CW</v>
-      </c>
-      <c r="B8" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <v>onNL_E</v>
-      </c>
-      <c r="B9" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <v>onBE</v>
-      </c>
-      <c r="B10" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <v>onDE</v>
-      </c>
-      <c r="B11" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <v>onUK</v>
-      </c>
-      <c r="B12" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <v>onNOS</v>
-      </c>
-      <c r="B13" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <v>onDKW</v>
-      </c>
-      <c r="B14" t="str">
-        <v>onshore</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <v>ofNL_IJ_B</v>
-      </c>
-      <c r="B15" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <v>ofNL_IJ_A</v>
-      </c>
-      <c r="B16" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <v>ofNL_BO_A</v>
-      </c>
-      <c r="B17" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <v>ofNL_BO_B</v>
-      </c>
-      <c r="B18" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <v>ofNL_EG</v>
-      </c>
-      <c r="B19" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <v>ofNL_PA</v>
-      </c>
-      <c r="B20" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <v>ofNL_LU</v>
-      </c>
-      <c r="B21" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <v>ofNL_GE_B</v>
-      </c>
-      <c r="B22" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <v>ofNL_GE_A</v>
-      </c>
-      <c r="B23" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <v>ofNL_KZ_B</v>
-      </c>
-      <c r="B24" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <v>ofNL_KZ_A</v>
-      </c>
-      <c r="B25" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <v>ofNL_KN</v>
-      </c>
-      <c r="B26" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <v>ofNL_KW_A</v>
-      </c>
-      <c r="B27" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <v>ofNL_KW_B</v>
-      </c>
-      <c r="B28" t="str">
-        <v>offshore</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <v>ofNL_IJ_G</v>
-      </c>
-      <c r="B29" t="str">
-        <v>offshore</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
